--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605FBF5F-74AB-924E-AB12-23340EAB0AB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779C516-71BA-4BAC-B957-8098DBA5F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="6900" windowWidth="26740" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -91,12 +91,16 @@
     <t>127.0.0.1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>192.168.10.95</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,22 +470,22 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -515,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -532,7 +536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -540,48 +544,48 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>10000</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779C516-71BA-4BAC-B957-8098DBA5F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D4124-C4EF-4438-BB18-EFFCD8ED30E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.10.95</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +466,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D4124-C4EF-4438-BB18-EFFCD8ED30E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7124FA3-AD43-4781-9C9D-C11F1F0E95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
